--- a/biology/Zoologie/Centruroides_thorellii/Centruroides_thorellii.xlsx
+++ b/biology/Zoologie/Centruroides_thorellii/Centruroides_thorellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides thorellii est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Guatemala et au Salvador[1].
-En 2017, une femelle de cette espèce a été introduite accidentellement en Angleterre et confiée au Exotic Pet Refuge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Guatemala et au Salvador.
+En 2017, une femelle de cette espèce a été introduite accidentellement en Angleterre et confiée au Exotic Pet Refuge.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Sissom en 1995 mesure 36,80 mm et la femelle 38,55 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Sissom en 1995 mesure 36,80 mm et la femelle 38,55 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Tord Tamerlan Teodor Thorell.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kraepelin, 1891 : « Revision der Skorpione. I. Die Familie des Androctonidae. » Jahrbuch der Hamburgischen Wissenschaftlichen Anstalten, vol. 8, p. 143-286 (texte intégral).</t>
         </is>
